--- a/ASSETS/excel/ticker/ticker_data_example.xlsx
+++ b/ASSETS/excel/ticker/ticker_data_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GC\ASSETS\excel\ticker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F3E4AA-E356-4581-9845-908096BE74B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75DF3F-ED58-49DF-9D1B-4E7EA3685A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12960" windowWidth="18030" windowHeight="6945" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
+    <workbookView xWindow="10365" yWindow="6285" windowWidth="40845" windowHeight="12795" activeTab="1" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
   </bookViews>
   <sheets>
     <sheet name="#README" sheetId="4" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>This is the first item marked as OK to use.</t>
-  </si>
-  <si>
     <t>This is the first item but it is a draft and will not go on-air.</t>
   </si>
   <si>
@@ -82,14 +79,17 @@
   </si>
   <si>
     <t>BUZ</t>
-  </si>
-  <si>
-    <t>Newest news</t>
   </si>
   <si>
     <t>All worksheets without # in their name will be loaded to ticker. The name of Worksheet is used as section header and each row (starting from the second line) which A-column is non-blank will be rendered in the ticker. The data is read everytime a section is loaded so this datafile can be updated while the ticker is running.
 let APIcall = "/api/readExcelData"; // Same host expected
 axios.post(APIcall,  {filename: 'mySpreadsheet.xlsx}) ...</t>
+  </si>
+  <si>
+    <t>Pitäähän sitä nyt vähintään yksi tikkeri olla</t>
+  </si>
+  <si>
+    <t>Tämä data tulee Excelistä mutta se voisi tulla esim Google Sheetistä</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5219D8A8-C5B7-4081-B580-34C8F58A105A}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -556,12 +556,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +576,7 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +596,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -793,12 +793,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,12 +814,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/ASSETS/excel/ticker/ticker_data_example.xlsx
+++ b/ASSETS/excel/ticker/ticker_data_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GC\ASSETS\excel\ticker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GC\pkg-builds\1_0_12\SPX-GC_1_0_12_win64\ASSETS\excel\ticker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75DF3F-ED58-49DF-9D1B-4E7EA3685A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D17E3F3-F46C-4376-BFE4-709C68795562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="6285" windowWidth="40845" windowHeight="12795" activeTab="1" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="15075" activeTab="1" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
   </bookViews>
   <sheets>
     <sheet name="#README" sheetId="4" r:id="rId1"/>
@@ -78,18 +78,18 @@
     <t>This is the last business item</t>
   </si>
   <si>
-    <t>BUZ</t>
-  </si>
-  <si>
     <t>All worksheets without # in their name will be loaded to ticker. The name of Worksheet is used as section header and each row (starting from the second line) which A-column is non-blank will be rendered in the ticker. The data is read everytime a section is loaded so this datafile can be updated while the ticker is running.
 let APIcall = "/api/readExcelData"; // Same host expected
 axios.post(APIcall,  {filename: 'mySpreadsheet.xlsx}) ...</t>
   </si>
   <si>
-    <t>Pitäähän sitä nyt vähintään yksi tikkeri olla</t>
-  </si>
-  <si>
-    <t>Tämä data tulee Excelistä mutta se voisi tulla esim Google Sheetistä</t>
+    <t>Business sections first item</t>
+  </si>
+  <si>
+    <t>This is the first active item in News workbook</t>
+  </si>
+  <si>
+    <t>Data source is a local Excel file</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="2:2" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/ASSETS/excel/ticker/ticker_data_example.xlsx
+++ b/ASSETS/excel/ticker/ticker_data_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GC\pkg-builds\1_0_12\SPX-GC_1_0_12_win64\ASSETS\excel\ticker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GC\ASSETS\excel\ticker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D17E3F3-F46C-4376-BFE4-709C68795562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AEE1D7-9A2B-412E-9D12-A32F6D013516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="15075" activeTab="1" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
+    <workbookView xWindow="14025" yWindow="1575" windowWidth="23655" windowHeight="17235" activeTab="1" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
   </bookViews>
   <sheets>
     <sheet name="#README" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>TICKER ITEM TEXT</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Data source is a local Excel file</t>
+  </si>
+  <si>
+    <t>This is the first news item</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,15 +619,14 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
